--- a/RFS/开放平台API用例/数据驱动_api.xlsx
+++ b/RFS/开放平台API用例/数据驱动_api.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="运价--海运出口整箱" sheetId="1" r:id="rId1"/>
+    <sheet name="接口列表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -462,7 +462,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
